--- a/COVSCA/Adjacency_matrix_oldwomen.xlsx
+++ b/COVSCA/Adjacency_matrix_oldwomen.xlsx
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.153526745361367</v>
       </c>
       <c r="U4" t="n">
         <v>0.458952614089617</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>0.200166762977825</v>
       </c>
       <c r="Q5" t="n">
         <v>0.304379792277041</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.123370294828301</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>0.145100445147683</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.123370294828301</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.145100445147683</v>
       </c>
       <c r="G15" t="n">
         <v>0.135216934823882</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.200166762977825</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.153526745361367</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
